--- a/SCRS_Model_Inputs 2021.xlsx
+++ b/SCRS_Model_Inputs 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/databaseR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A413C0-4002-3143-92D7-71C7CBE4F7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D931F-E38B-394E-8D1D-0BFB0338049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3180" yWindow="-21240" windowWidth="35840" windowHeight="20100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3180" yWindow="-21240" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -1493,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1577,8 +1577,8 @@
       <c r="B8" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="16">
-        <v>0.75</v>
+      <c r="C8" s="54">
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SCRS_Model_Inputs 2021.xlsx
+++ b/SCRS_Model_Inputs 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/databaseR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Career management/Reason/Reason Work/South Carolina/Funding Models/SCRS Funding R Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D931F-E38B-394E-8D1D-0BFB0338049D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9F0E0-6A60-CF41-9838-DEBF88E88396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3180" yWindow="-21240" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -1493,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A18" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1518,7 @@
         <v>166</v>
       </c>
       <c r="C2" s="54">
-        <v>7.2499999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,7 +1540,7 @@
         <v>168</v>
       </c>
       <c r="C4" s="54">
-        <v>7.2499999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,7 +1633,7 @@
         <v>170</v>
       </c>
       <c r="C13" s="57">
-        <v>0.11691702481432163</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>194</v>
       </c>
       <c r="C14" s="57">
-        <v>9.3299999999999994E-2</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>195</v>
       </c>
       <c r="C15" s="57">
-        <v>9.3299999999999994E-2</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>221</v>
       </c>
       <c r="C25" s="59">
-        <v>2.7E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2082,7 @@
         <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,73 +2488,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DI4"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" customWidth="1"/>
-    <col min="32" max="32" width="7.5" customWidth="1"/>
-    <col min="33" max="33" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="7.5" customWidth="1"/>
-    <col min="36" max="36" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="8.33203125" customWidth="1"/>
-    <col min="45" max="45" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="66" width="14.33203125" customWidth="1"/>
-    <col min="67" max="67" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="11.5" customWidth="1"/>
-    <col min="71" max="71" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.6640625" customWidth="1"/>
-    <col min="73" max="73" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="9.5" customWidth="1"/>
-    <col min="77" max="77" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18.5" customWidth="1"/>
-    <col min="81" max="81" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.83203125" customWidth="1"/>
-    <col min="83" max="85" width="11.83203125" customWidth="1"/>
-    <col min="86" max="86" width="22" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="11.5" customWidth="1"/>
-    <col min="92" max="92" width="12" customWidth="1"/>
-    <col min="93" max="93" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="103" width="18" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="112" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:113" x14ac:dyDescent="0.2">
@@ -3443,7 +3489,7 @@
       </c>
       <c r="W4" s="71">
         <f>AB4</f>
-        <v>1008.6078845000001</v>
+        <v>1009.5567160000001</v>
       </c>
       <c r="X4" s="23"/>
       <c r="Y4" s="56">
@@ -3456,8 +3502,8 @@
         <v>0</v>
       </c>
       <c r="AB4" s="71">
-        <f>AU3*H4</f>
-        <v>1008.6078845000001</v>
+        <f>AU2*H4</f>
+        <v>1009.5567160000001</v>
       </c>
       <c r="AC4" s="23"/>
       <c r="AD4" s="56">
